--- a/InputFiles/CDS/TC05_CDS_study-CIDR_ExprStrtgies-WGS_Gender-Male_TumorStatus-Normal_FileType-CRAI.xlsx
+++ b/InputFiles/CDS/TC05_CDS_study-CIDR_ExprStrtgies-WGS_Gender-Male_TumorStatus-Normal_FileType-CRAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\CDS Automation\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F067B8-6B46-4483-8581-FD64B76C089B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD23A0D-91B9-470B-83F0-4A926A6FF11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -57,16 +57,10 @@
     <t>ParticipantsTab</t>
   </si>
   <si>
-    <t>TC05_CDS_study-CIDR_ExprStrtgies-WGS_Gender-Male_TumorStatus-Normal_FileType-CRAI_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC05_CDS_study-CIDR_ExprStrtgies-WGS_Gender-Male_TumorStatus-Normal_FileType-CRAI_WebData.xlsx</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;--(p:participant)
 OPTIONAL MATCH (p)&lt;--(samp:sample)
 MATCH (samp)&lt;--(f:file)
-WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"] and f.file_type in ['CRAI']
+WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"] and f.file_type in ['CRAM']
 WITH p, s, collect(distinct samp.sample_id) as samp
 RETURN
  coalesce(p.participant_id,'') as `Participant ID`,
@@ -82,7 +76,7 @@
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp)&lt;--(f:file)
 WITH DISTINCT samp,diag,s,p,f
-WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"] and f.file_type in ['CRAI']
+WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"] and f.file_type in ['CRAM']
 RETURN
     count(distinct s) AS Studies,
     count(distinct p) AS Participants,
@@ -92,7 +86,7 @@
   <si>
     <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
 MATCH (samp)&lt;--(f:file)
-WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"]and f.file_type in ['CRAI']
+WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"]and f.file_type in ['CRAM']
 OPTIONAL MATCH (p)&lt;--(samp:sample)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp)&lt;--(f:file)
@@ -109,7 +103,7 @@
   <si>
     <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
  MATCH  (samp:sample)&lt;--(f:file)
-WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"]and f.file_type in ['CRAI']
+WHERE s.study_name in ["CIDR: Discovery, Biology, and Risk of Inherited Variants in Glioma sample"] and f.experimental_strategy_and_data_subtypes in ['WGS']and p.gender in['Male'] and samp.sample_tumor_status in["Normal"]and f.file_type in ['CRAM']
 WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
 RETURN
  coalesce(samp.sample_id, '') as `Sample ID`,
@@ -119,6 +113,12 @@
  coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
 ORDER By samp.sample_id LIMIT 100</t>
+  </si>
+  <si>
+    <t>TC05_CDS_study-CIDR_ExprStrtgies-WGS_Gender-Male_TumorStatus-Normal_FileType-CRAM_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>TC05_CDS_study-CIDR_ExprStrtgies-WGS_Gender-Male_TumorStatus-Normal_FileType-CRAM_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,9 +177,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -500,88 +498,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" customWidth="1"/>
-    <col min="5" max="5" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="143" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="336" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="357" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="399" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="279" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
